--- a/csvs/zip-city_score.xlsx
+++ b/csvs/zip-city_score.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmty\Desktop\HFU\5 Fünftesemester\signal processing\myProject papers\project\Real-Estate-Price-and-Price-Interval-Prediction\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B723C91B-05BD-4143-BC34-256D1E55ECB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E6404A-11B8-4ACC-BE41-35600C1F8BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>ZipCode</t>
   </si>
   <si>
     <t>city_score</t>
+  </si>
+  <si>
+    <t>population</t>
   </si>
 </sst>
 </file>
@@ -359,2105 +362,2888 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:C261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12689</v>
       </c>
       <c r="B2">
+        <v>3426354</v>
+      </c>
+      <c r="C2">
         <v>5.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>93059</v>
       </c>
       <c r="B3">
+        <v>129151</v>
+      </c>
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>91058</v>
       </c>
       <c r="B4">
+        <v>102675</v>
+      </c>
+      <c r="C4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>91474</v>
       </c>
       <c r="B5">
+        <v>59378</v>
+      </c>
+      <c r="C5">
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40764</v>
       </c>
       <c r="B6">
+        <v>59378</v>
+      </c>
+      <c r="C6">
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>94036</v>
       </c>
       <c r="B7">
+        <v>50560</v>
+      </c>
+      <c r="C7">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17036</v>
       </c>
       <c r="B8">
+        <v>68082</v>
+      </c>
+      <c r="C8">
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>92224</v>
       </c>
       <c r="B9">
+        <v>44737</v>
+      </c>
+      <c r="C9">
         <v>4.5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>86854</v>
       </c>
       <c r="B10">
+        <v>44737</v>
+      </c>
+      <c r="C10">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>17493</v>
       </c>
       <c r="B11">
+        <v>52731</v>
+      </c>
+      <c r="C11">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>14482</v>
       </c>
       <c r="B12">
+        <v>145292</v>
+      </c>
+      <c r="C12">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>39576</v>
       </c>
       <c r="B13">
+        <v>37722</v>
+      </c>
+      <c r="C13">
         <v>6.2969999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>89522</v>
       </c>
       <c r="B14">
+        <v>50067</v>
+      </c>
+      <c r="C14">
         <v>6.1849999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>68309</v>
       </c>
       <c r="B15">
+        <v>307960</v>
+      </c>
+      <c r="C15">
         <v>6.11</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>95448</v>
       </c>
       <c r="B16">
+        <v>75061</v>
+      </c>
+      <c r="C16">
         <v>6.0119999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>99099</v>
       </c>
       <c r="B17">
+        <v>203254</v>
+      </c>
+      <c r="C17">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>93489</v>
       </c>
       <c r="B18">
+        <v>39697</v>
+      </c>
+      <c r="C18">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>73614</v>
       </c>
       <c r="B19">
+        <v>39697</v>
+      </c>
+      <c r="C19">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14612</v>
       </c>
       <c r="B20">
+        <v>37468</v>
+      </c>
+      <c r="C20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>45665</v>
       </c>
       <c r="B21">
+        <v>122438</v>
+      </c>
+      <c r="C21">
         <v>5.6449999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>53721</v>
       </c>
       <c r="B22">
+        <v>39135</v>
+      </c>
+      <c r="C22">
         <v>5.6230000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>78532</v>
       </c>
       <c r="B23">
+        <v>34847</v>
+      </c>
+      <c r="C23">
         <v>5.5709999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18147</v>
       </c>
       <c r="B24">
+        <v>198293</v>
+      </c>
+      <c r="C24">
         <v>5.4989999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>88214</v>
       </c>
       <c r="B25">
+        <v>48825</v>
+      </c>
+      <c r="C25">
         <v>5.415</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>47877</v>
       </c>
       <c r="B26">
+        <v>51843</v>
+      </c>
+      <c r="C26">
         <v>5.2590000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>51469</v>
       </c>
       <c r="B27">
+        <v>106184</v>
+      </c>
+      <c r="C27">
         <v>5.1879999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>38518</v>
       </c>
       <c r="B28">
+        <v>43000</v>
+      </c>
+      <c r="C28">
         <v>5.0759999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>41542</v>
       </c>
       <c r="B29">
+        <v>63582</v>
+      </c>
+      <c r="C29">
         <v>5.0410000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>53859</v>
       </c>
       <c r="B30">
+        <v>36480</v>
+      </c>
+      <c r="C30">
         <v>5.0110000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>85221</v>
       </c>
       <c r="B31">
+        <v>39740</v>
+      </c>
+      <c r="C31">
         <v>5.0010000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>59558</v>
       </c>
       <c r="B32">
+        <v>67219</v>
+      </c>
+      <c r="C32">
         <v>4.944</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>89081</v>
       </c>
       <c r="B33">
+        <v>120451</v>
+      </c>
+      <c r="C33">
         <v>4.8869999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>85356</v>
       </c>
       <c r="B34">
+        <v>42570</v>
+      </c>
+      <c r="C34">
         <v>4.8609999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>42929</v>
       </c>
       <c r="B35">
+        <v>36816</v>
+      </c>
+      <c r="C35">
         <v>4.782</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>44581</v>
       </c>
       <c r="B36">
+        <v>77924</v>
+      </c>
+      <c r="C36">
         <v>4.7370000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>40724</v>
       </c>
       <c r="B37">
+        <v>56565</v>
+      </c>
+      <c r="C37">
         <v>4.7290000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>54295</v>
       </c>
       <c r="B38">
+        <v>100129</v>
+      </c>
+      <c r="C38">
         <v>4.6749999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>51381</v>
       </c>
       <c r="B39">
+        <v>162738</v>
+      </c>
+      <c r="C39">
         <v>4.673</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32052</v>
       </c>
       <c r="B40">
+        <v>64879</v>
+      </c>
+      <c r="C40">
         <v>4.6310000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>76229</v>
       </c>
       <c r="B41">
+        <v>283799</v>
+      </c>
+      <c r="C41">
         <v>4.59</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>78056</v>
       </c>
       <c r="B42">
+        <v>81770</v>
+      </c>
+      <c r="C42">
         <v>4.5640000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>36043</v>
       </c>
       <c r="B43">
+        <v>63760</v>
+      </c>
+      <c r="C43">
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>27478</v>
       </c>
       <c r="B44">
+        <v>52677</v>
+      </c>
+      <c r="C44">
         <v>4.5129999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>16227</v>
       </c>
       <c r="B45">
+        <v>41980</v>
+      </c>
+      <c r="C45">
         <v>4.5</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>96450</v>
       </c>
       <c r="B46">
+        <v>41901</v>
+      </c>
+      <c r="C46">
         <v>4.4790000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47608</v>
       </c>
       <c r="B47">
+        <v>34013</v>
+      </c>
+      <c r="C47">
         <v>4.4669999999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26789</v>
       </c>
       <c r="B48">
+        <v>33886</v>
+      </c>
+      <c r="C48">
         <v>4.4169999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48531</v>
       </c>
       <c r="B49">
+        <v>52803</v>
+      </c>
+      <c r="C49">
         <v>4.415</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>67346</v>
       </c>
       <c r="B50">
+        <v>50343</v>
+      </c>
+      <c r="C50">
         <v>4.3739999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>52080</v>
       </c>
       <c r="B51">
+        <v>265208</v>
+      </c>
+      <c r="C51">
         <v>4.3410000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>30827</v>
       </c>
       <c r="B52">
+        <v>63355</v>
+      </c>
+      <c r="C52">
         <v>4.3380000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>97424</v>
       </c>
       <c r="B53">
+        <v>54012</v>
+      </c>
+      <c r="C53">
         <v>4.3239999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>70736</v>
       </c>
       <c r="B54">
+        <v>43935</v>
+      </c>
+      <c r="C54">
         <v>4.2809999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>70619</v>
       </c>
       <c r="B55">
+        <v>589793</v>
+      </c>
+      <c r="C55">
         <v>4.2610000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>34134</v>
       </c>
       <c r="B56">
+        <v>194501</v>
+      </c>
+      <c r="C56">
         <v>4.2240000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>49328</v>
       </c>
       <c r="B57">
+        <v>46514</v>
+      </c>
+      <c r="C57">
         <v>4.1879999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>59494</v>
       </c>
       <c r="B58">
+        <v>48037</v>
+      </c>
+      <c r="C58">
         <v>4.1550000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>48282</v>
       </c>
       <c r="B59">
+        <v>35582</v>
+      </c>
+      <c r="C59">
         <v>4.1379999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>28779</v>
       </c>
       <c r="B60">
+        <v>546501</v>
+      </c>
+      <c r="C60">
         <v>4.1239999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>53332</v>
       </c>
       <c r="B61">
+        <v>48523</v>
+      </c>
+      <c r="C61">
         <v>4.1180000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>65936</v>
       </c>
       <c r="B62">
+        <v>650000</v>
+      </c>
+      <c r="C62">
         <v>4.109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>59192</v>
       </c>
       <c r="B63">
+        <v>52329</v>
+      </c>
+      <c r="C63">
         <v>4.0289999999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>32791</v>
       </c>
       <c r="B64">
+        <v>36097</v>
+      </c>
+      <c r="C64">
         <v>4.0110000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>98711</v>
       </c>
       <c r="B65">
+        <v>43509</v>
+      </c>
+      <c r="C65">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>98529</v>
       </c>
       <c r="B66">
+        <v>43509</v>
+      </c>
+      <c r="C66">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>94315</v>
       </c>
       <c r="B67">
+        <v>44580</v>
+      </c>
+      <c r="C67">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>87600</v>
       </c>
       <c r="B68">
+        <v>42505</v>
+      </c>
+      <c r="C68">
         <v>3.984</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>33106</v>
       </c>
       <c r="B69">
+        <v>142161</v>
+      </c>
+      <c r="C69">
         <v>3.98</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>72336</v>
       </c>
       <c r="B70">
+        <v>34414</v>
+      </c>
+      <c r="C70">
         <v>3.952</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>45359</v>
       </c>
       <c r="B71">
+        <v>593085</v>
+      </c>
+      <c r="C71">
         <v>3.903</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>30855</v>
       </c>
       <c r="B72">
+        <v>50439</v>
+      </c>
+      <c r="C72">
         <v>3.8330000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>46539</v>
       </c>
       <c r="B73">
+        <v>70573</v>
+      </c>
+      <c r="C73">
         <v>3.8239999999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>35586</v>
       </c>
       <c r="B74">
+        <v>52656</v>
+      </c>
+      <c r="C74">
         <v>3.8039999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74889</v>
       </c>
       <c r="B75">
+        <v>35219</v>
+      </c>
+      <c r="C75">
         <v>3.7829999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>83026</v>
       </c>
       <c r="B76">
+        <v>60167</v>
+      </c>
+      <c r="C76">
         <v>3.766</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>38820</v>
       </c>
       <c r="B77">
+        <v>39729</v>
+      </c>
+      <c r="C77">
         <v>3.7530000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>42719</v>
       </c>
       <c r="B78">
+        <v>164359</v>
+      </c>
+      <c r="C78">
         <v>3.7450000000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>40789</v>
       </c>
       <c r="B79">
+        <v>43038</v>
+      </c>
+      <c r="C79">
         <v>3.7440000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>53757</v>
       </c>
       <c r="B80">
+        <v>56094</v>
+      </c>
+      <c r="C80">
         <v>3.7370000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>58456</v>
       </c>
       <c r="B81">
+        <v>101247</v>
+      </c>
+      <c r="C81">
         <v>3.73</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>47533</v>
       </c>
       <c r="B82">
+        <v>49072</v>
+      </c>
+      <c r="C82">
         <v>3.718</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>74867</v>
       </c>
       <c r="B83">
+        <v>49843</v>
+      </c>
+      <c r="C83">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>66540</v>
       </c>
       <c r="B84">
+        <v>49843</v>
+      </c>
+      <c r="C84">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>63930</v>
       </c>
       <c r="B85">
+        <v>49843</v>
+      </c>
+      <c r="C85">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>57290</v>
       </c>
       <c r="B86">
+        <v>49843</v>
+      </c>
+      <c r="C86">
         <v>3.7120000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>72461</v>
       </c>
       <c r="B87">
+        <v>46664</v>
+      </c>
+      <c r="C87">
         <v>3.694</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>77694</v>
       </c>
       <c r="B88">
+        <v>34009</v>
+      </c>
+      <c r="C88">
         <v>3.6739999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>53881</v>
       </c>
       <c r="B89">
+        <v>54889</v>
+      </c>
+      <c r="C89">
         <v>3.6579999999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>45968</v>
       </c>
       <c r="B90">
+        <v>76940</v>
+      </c>
+      <c r="C90">
         <v>3.6459999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>70771</v>
       </c>
       <c r="B91">
+        <v>36672</v>
+      </c>
+      <c r="C91">
         <v>3.6419999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>31141</v>
       </c>
       <c r="B92">
+        <v>103052</v>
+      </c>
+      <c r="C92">
         <v>3.6419999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>30880</v>
       </c>
       <c r="B93">
+        <v>40038</v>
+      </c>
+      <c r="C93">
         <v>3.6419999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>58644</v>
       </c>
       <c r="B94">
+        <v>97910</v>
+      </c>
+      <c r="C94">
         <v>3.6379999999999999</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>67580</v>
       </c>
       <c r="B95">
+        <v>185327</v>
+      </c>
+      <c r="C95">
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>59077</v>
       </c>
       <c r="B96">
+        <v>185327</v>
+      </c>
+      <c r="C96">
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>53844</v>
       </c>
       <c r="B97">
+        <v>74749</v>
+      </c>
+      <c r="C97">
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>63743</v>
       </c>
       <c r="B98">
+        <v>68551</v>
+      </c>
+      <c r="C98">
         <v>3.605</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>52134</v>
       </c>
       <c r="B99">
+        <v>47381</v>
+      </c>
+      <c r="C99">
         <v>3.5910000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>71229</v>
       </c>
       <c r="B100">
+        <v>45711</v>
+      </c>
+      <c r="C100">
         <v>3.5870000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>63225</v>
       </c>
       <c r="B101">
+        <v>35416</v>
+      </c>
+      <c r="C101">
         <v>3.5870000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>41751</v>
       </c>
       <c r="B102">
+        <v>76153</v>
+      </c>
+      <c r="C102">
         <v>3.581</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>59427</v>
       </c>
       <c r="B103">
+        <v>66734</v>
+      </c>
+      <c r="C103">
         <v>3.5739999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>33739</v>
       </c>
       <c r="B104">
+        <v>331906</v>
+      </c>
+      <c r="C104">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>88048</v>
       </c>
       <c r="B105">
+        <v>58403</v>
+      </c>
+      <c r="C105">
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>87700</v>
       </c>
       <c r="B106">
+        <v>41135</v>
+      </c>
+      <c r="C106">
         <v>3.528</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>31789</v>
       </c>
       <c r="B107">
+        <v>58666</v>
+      </c>
+      <c r="C107">
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>86697</v>
       </c>
       <c r="B108">
+        <v>219176</v>
+      </c>
+      <c r="C108">
         <v>3.4849999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>46149</v>
       </c>
       <c r="B109">
+        <v>219176</v>
+      </c>
+      <c r="C109">
         <v>3.4849999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>50374</v>
       </c>
       <c r="B110">
+        <v>51207</v>
+      </c>
+      <c r="C110">
         <v>3.4369999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>65719</v>
       </c>
       <c r="B111">
+        <v>37750</v>
+      </c>
+      <c r="C111">
         <v>3.43</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>26389</v>
       </c>
       <c r="B112">
+        <v>84393</v>
+      </c>
+      <c r="C112">
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>73434</v>
       </c>
       <c r="B113">
+        <v>67085</v>
+      </c>
+      <c r="C113">
         <v>3.4169999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>21220</v>
       </c>
       <c r="B114">
+        <v>41266</v>
+      </c>
+      <c r="C114">
         <v>3.4119999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>45701</v>
       </c>
       <c r="B115">
+        <v>65306</v>
+      </c>
+      <c r="C115">
         <v>3.3969999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>25421</v>
       </c>
       <c r="B116">
+        <v>40577</v>
+      </c>
+      <c r="C116">
         <v>3.379</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>41517</v>
       </c>
       <c r="B117">
+        <v>64779</v>
+      </c>
+      <c r="C117">
         <v>3.3679999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>76646</v>
       </c>
       <c r="B118">
+        <v>42785</v>
+      </c>
+      <c r="C118">
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>44388</v>
       </c>
       <c r="B119">
+        <v>588462</v>
+      </c>
+      <c r="C119">
         <v>3.3359999999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>47447</v>
       </c>
       <c r="B120">
+        <v>107816</v>
+      </c>
+      <c r="C120">
         <v>3.3220000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>27755</v>
       </c>
       <c r="B121">
+        <v>75893</v>
+      </c>
+      <c r="C121">
         <v>3.2970000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>46487</v>
       </c>
       <c r="B122">
+        <v>61685</v>
+      </c>
+      <c r="C122">
         <v>3.2909999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>50171</v>
       </c>
       <c r="B123">
+        <v>64226</v>
+      </c>
+      <c r="C123">
         <v>3.2719999999999998</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>59823</v>
       </c>
       <c r="B124">
+        <v>76612</v>
+      </c>
+      <c r="C124">
         <v>3.2690000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>77656</v>
       </c>
       <c r="B125">
+        <v>59238</v>
+      </c>
+      <c r="C125">
         <v>3.2639999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>21244</v>
       </c>
       <c r="B126">
+        <v>37404</v>
+      </c>
+      <c r="C126">
         <v>3.2280000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>45899</v>
       </c>
       <c r="B127">
+        <v>270028</v>
+      </c>
+      <c r="C127">
         <v>3.2250000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>44653</v>
       </c>
       <c r="B128">
+        <v>172108</v>
+      </c>
+      <c r="C128">
         <v>3.2170000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>72770</v>
       </c>
       <c r="B129">
+        <v>112627</v>
+      </c>
+      <c r="C129">
         <v>3.2040000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>38448</v>
       </c>
       <c r="B130">
+        <v>123064</v>
+      </c>
+      <c r="C130">
         <v>3.177</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>45772</v>
       </c>
       <c r="B131">
+        <v>91398</v>
+      </c>
+      <c r="C131">
         <v>3.1739999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>50259</v>
       </c>
       <c r="B132">
+        <v>53762</v>
+      </c>
+      <c r="C132">
         <v>3.1549999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>40670</v>
       </c>
       <c r="B133">
+        <v>54826</v>
+      </c>
+      <c r="C133">
         <v>3.1549999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>32457</v>
       </c>
       <c r="B134">
+        <v>36364</v>
+      </c>
+      <c r="C134">
         <v>3.1440000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>78467</v>
       </c>
       <c r="B135">
+        <v>81275</v>
+      </c>
+      <c r="C135">
         <v>3.113</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>21684</v>
       </c>
       <c r="B136">
+        <v>45634</v>
+      </c>
+      <c r="C136">
         <v>3.11</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>42899</v>
       </c>
       <c r="B137">
+        <v>117118</v>
+      </c>
+      <c r="C137">
         <v>3.08</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>48683</v>
       </c>
       <c r="B138">
+        <v>38165</v>
+      </c>
+      <c r="C138">
         <v>3.0790000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>58675</v>
       </c>
       <c r="B139">
+        <v>37502</v>
+      </c>
+      <c r="C139">
         <v>3.0760000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>67663</v>
       </c>
       <c r="B140">
+        <v>98732</v>
+      </c>
+      <c r="C140">
         <v>3.0739999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>58135</v>
       </c>
       <c r="B141">
+        <v>198972</v>
+      </c>
+      <c r="C141">
         <v>3.069</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>27628</v>
       </c>
       <c r="B142">
+        <v>198972</v>
+      </c>
+      <c r="C142">
         <v>3.069</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>67071</v>
       </c>
       <c r="B143">
+        <v>163196</v>
+      </c>
+      <c r="C143">
         <v>3.0529999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>40885</v>
       </c>
       <c r="B144">
+        <v>91606</v>
+      </c>
+      <c r="C144">
         <v>3.0419999999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>99428</v>
       </c>
       <c r="B145">
+        <v>64727</v>
+      </c>
+      <c r="C145">
         <v>3.0289999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>78224</v>
       </c>
       <c r="B146">
+        <v>45696</v>
+      </c>
+      <c r="C146">
         <v>3.0219999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>47279</v>
       </c>
       <c r="B147">
+        <v>504358</v>
+      </c>
+      <c r="C147">
         <v>3.02</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>31515</v>
       </c>
       <c r="B148">
+        <v>42080</v>
+      </c>
+      <c r="C148">
         <v>3.0070000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>21614</v>
       </c>
       <c r="B149">
+        <v>38192</v>
+      </c>
+      <c r="C149">
         <v>3.0049999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>73230</v>
       </c>
       <c r="B150">
+        <v>40206</v>
+      </c>
+      <c r="C150">
         <v>2.9889999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>56077</v>
       </c>
       <c r="B151">
+        <v>107319</v>
+      </c>
+      <c r="C151">
         <v>2.9870000000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>25337</v>
       </c>
       <c r="B152">
+        <v>48703</v>
+      </c>
+      <c r="C152">
         <v>2.9790000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>41472</v>
       </c>
       <c r="B153">
+        <v>152457</v>
+      </c>
+      <c r="C153">
         <v>2.9769999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>38126</v>
       </c>
       <c r="B154">
+        <v>244715</v>
+      </c>
+      <c r="C154">
         <v>2.9740000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>95032</v>
       </c>
       <c r="B155">
+        <v>49239</v>
+      </c>
+      <c r="C155">
         <v>2.9609999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>47839</v>
       </c>
       <c r="B156">
+        <v>237984</v>
+      </c>
+      <c r="C156">
         <v>2.96</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>84095</v>
       </c>
       <c r="B157">
+        <v>112025</v>
+      </c>
+      <c r="C157">
         <v>2.9569999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>99734</v>
       </c>
       <c r="B158">
+        <v>43912</v>
+      </c>
+      <c r="C158">
         <v>2.9510000000000001</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>89233</v>
       </c>
       <c r="B159">
+        <v>51389</v>
+      </c>
+      <c r="C159">
         <v>2.9420000000000002</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>55131</v>
       </c>
       <c r="B160">
+        <v>184997</v>
+      </c>
+      <c r="C160">
         <v>2.9359999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>65205</v>
       </c>
       <c r="B161">
+        <v>272432</v>
+      </c>
+      <c r="C161">
         <v>2.93</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>26871</v>
       </c>
       <c r="B162">
+        <v>34117</v>
+      </c>
+      <c r="C162">
         <v>2.9289999999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>69126</v>
       </c>
       <c r="B163">
+        <v>143345</v>
+      </c>
+      <c r="C163">
         <v>2.9260000000000002</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>58239</v>
       </c>
       <c r="B164">
+        <v>50399</v>
+      </c>
+      <c r="C164">
         <v>2.9239999999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>63477</v>
       </c>
       <c r="B165">
+        <v>38313</v>
+      </c>
+      <c r="C165">
         <v>2.92</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>41564</v>
       </c>
       <c r="B166">
+        <v>42112</v>
+      </c>
+      <c r="C166">
         <v>2.9060000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>26725</v>
       </c>
       <c r="B167">
+        <v>51526</v>
+      </c>
+      <c r="C167">
         <v>2.9049999999999998</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>53229</v>
       </c>
       <c r="B168">
+        <v>313125</v>
+      </c>
+      <c r="C168">
         <v>2.9</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>74321</v>
       </c>
       <c r="B169">
+        <v>41769</v>
+      </c>
+      <c r="C169">
         <v>2.8919999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>52224</v>
       </c>
       <c r="B170">
+        <v>58874</v>
+      </c>
+      <c r="C170">
         <v>2.8849999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>84036</v>
       </c>
       <c r="B171">
+        <v>60488</v>
+      </c>
+      <c r="C171">
         <v>2.879</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>46399</v>
       </c>
       <c r="B172">
+        <v>73943</v>
+      </c>
+      <c r="C172">
         <v>2.863</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>47906</v>
       </c>
       <c r="B173">
+        <v>36312</v>
+      </c>
+      <c r="C173">
         <v>2.8620000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>49811</v>
       </c>
       <c r="B174">
+        <v>51310</v>
+      </c>
+      <c r="C174">
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>76275</v>
       </c>
       <c r="B175">
+        <v>38942</v>
+      </c>
+      <c r="C175">
         <v>2.8450000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>48268</v>
       </c>
       <c r="B176">
+        <v>35080</v>
+      </c>
+      <c r="C176">
         <v>2.835</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>41334</v>
       </c>
       <c r="B177">
+        <v>42417</v>
+      </c>
+      <c r="C177">
         <v>2.8220000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>48565</v>
       </c>
       <c r="B178">
+        <v>34601</v>
+      </c>
+      <c r="C178">
         <v>2.8180000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>52477</v>
       </c>
       <c r="B179">
+        <v>46340</v>
+      </c>
+      <c r="C179">
         <v>2.8149999999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>96052</v>
       </c>
       <c r="B180">
+        <v>70047</v>
+      </c>
+      <c r="C180">
         <v>2.8069999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>24159</v>
       </c>
       <c r="B181">
+        <v>232758</v>
+      </c>
+      <c r="C181">
         <v>2.8010000000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>51647</v>
       </c>
       <c r="B182">
+        <v>53131</v>
+      </c>
+      <c r="C182">
         <v>2.7719999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>50389</v>
       </c>
       <c r="B183">
+        <v>35665</v>
+      </c>
+      <c r="C183">
         <v>2.7709999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>71522</v>
       </c>
       <c r="B184">
+        <v>35778</v>
+      </c>
+      <c r="C184">
         <v>2.76</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>32429</v>
       </c>
       <c r="B185">
+        <v>82879</v>
+      </c>
+      <c r="C185">
         <v>2.754</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>55583</v>
       </c>
       <c r="B186">
+        <v>43213</v>
+      </c>
+      <c r="C186">
         <v>2.7429999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>50226</v>
       </c>
       <c r="B187">
+        <v>48733</v>
+      </c>
+      <c r="C187">
         <v>2.7330000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>66386</v>
       </c>
       <c r="B188">
+        <v>38697</v>
+      </c>
+      <c r="C188">
         <v>2.7170000000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>38690</v>
       </c>
       <c r="B189">
+        <v>43560</v>
+      </c>
+      <c r="C189">
         <v>2.71</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>71069</v>
       </c>
       <c r="B190">
+        <v>61311</v>
+      </c>
+      <c r="C190">
         <v>2.7040000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>46325</v>
       </c>
       <c r="B191">
+        <v>40876</v>
+      </c>
+      <c r="C191">
         <v>2.6989999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>34582</v>
       </c>
       <c r="B192">
+        <v>40876</v>
+      </c>
+      <c r="C192">
         <v>2.6989999999999998</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>56567</v>
       </c>
       <c r="B193">
+        <v>66805</v>
+      </c>
+      <c r="C193">
         <v>2.6970000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>29525</v>
       </c>
       <c r="B194">
+        <v>34996</v>
+      </c>
+      <c r="C194">
         <v>2.6960000000000002</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>40822</v>
       </c>
       <c r="B195">
+        <v>39550</v>
+      </c>
+      <c r="C195">
         <v>2.6709999999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>52249</v>
       </c>
       <c r="B196">
+        <v>55778</v>
+      </c>
+      <c r="C196">
         <v>2.67</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>76534</v>
       </c>
       <c r="B197">
+        <v>54239</v>
+      </c>
+      <c r="C197">
         <v>2.653</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>38259</v>
       </c>
       <c r="B198">
+        <v>101079</v>
+      </c>
+      <c r="C198">
         <v>2.6419999999999999</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>38879</v>
       </c>
       <c r="B199">
+        <v>34463</v>
+      </c>
+      <c r="C199">
         <v>2.6349999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>32549</v>
       </c>
       <c r="B200">
+        <v>49513</v>
+      </c>
+      <c r="C200">
         <v>2.6320000000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>86673</v>
       </c>
       <c r="B201">
+        <v>63558</v>
+      </c>
+      <c r="C201">
         <v>2.629</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>50129</v>
       </c>
       <c r="B202">
+        <v>63558</v>
+      </c>
+      <c r="C202">
         <v>2.629</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>26122</v>
       </c>
       <c r="B203">
+        <v>159218</v>
+      </c>
+      <c r="C203">
         <v>2.6280000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>45711</v>
       </c>
       <c r="B204">
+        <v>36338</v>
+      </c>
+      <c r="C204">
         <v>2.6179999999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>26607</v>
       </c>
       <c r="B205">
+        <v>40319</v>
+      </c>
+      <c r="C205">
         <v>2.6139999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>48432</v>
       </c>
       <c r="B206">
+        <v>76491</v>
+      </c>
+      <c r="C206">
         <v>2.609</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>35279</v>
       </c>
       <c r="B207">
+        <v>53984</v>
+      </c>
+      <c r="C207">
         <v>2.6030000000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>23730</v>
       </c>
       <c r="B208">
+        <v>53984</v>
+      </c>
+      <c r="C208">
         <v>2.6030000000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>39130</v>
       </c>
       <c r="B209">
+        <v>229826</v>
+      </c>
+      <c r="C209">
         <v>2.5910000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>86199</v>
       </c>
       <c r="B210">
+        <v>259196</v>
+      </c>
+      <c r="C210">
         <v>2.5790000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>48231</v>
       </c>
       <c r="B211">
+        <v>38707</v>
+      </c>
+      <c r="C211">
         <v>2.5779999999999998</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>82110</v>
       </c>
       <c r="B212">
+        <v>36834</v>
+      </c>
+      <c r="C212">
         <v>2.573</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>76437</v>
       </c>
       <c r="B213">
+        <v>47906</v>
+      </c>
+      <c r="C213">
         <v>2.5670000000000002</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>22769</v>
       </c>
       <c r="B214">
+        <v>1739117</v>
+      </c>
+      <c r="C214">
         <v>2.5590000000000002</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>31228</v>
       </c>
       <c r="B215">
+        <v>49953</v>
+      </c>
+      <c r="C215">
         <v>2.5579999999999998</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>23970</v>
       </c>
       <c r="B216">
+        <v>45255</v>
+      </c>
+      <c r="C216">
         <v>2.556</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>30659</v>
       </c>
       <c r="B217">
+        <v>515140</v>
+      </c>
+      <c r="C217">
         <v>2.5539999999999998</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>40699</v>
       </c>
       <c r="B218">
+        <v>47815</v>
+      </c>
+      <c r="C218">
         <v>2.5310000000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>59269</v>
       </c>
       <c r="B219">
+        <v>37814</v>
+      </c>
+      <c r="C219">
         <v>2.5259999999999998</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>70794</v>
       </c>
       <c r="B220">
+        <v>43550</v>
+      </c>
+      <c r="C220">
         <v>2.516</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>71642</v>
       </c>
       <c r="B221">
+        <v>87603</v>
+      </c>
+      <c r="C221">
         <v>2.5089999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>49716</v>
       </c>
       <c r="B222">
+        <v>34198</v>
+      </c>
+      <c r="C222">
         <v>2.5070000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>48599</v>
       </c>
       <c r="B223">
+        <v>46161</v>
+      </c>
+      <c r="C223">
         <v>2.4940000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>46286</v>
       </c>
       <c r="B224">
+        <v>79981</v>
+      </c>
+      <c r="C224">
         <v>2.4649999999999999</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>85057</v>
       </c>
       <c r="B225">
+        <v>120658</v>
+      </c>
+      <c r="C225">
         <v>2.4340000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>57080</v>
       </c>
       <c r="B226">
+        <v>107242</v>
+      </c>
+      <c r="C226">
         <v>2.4319999999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>48653</v>
       </c>
       <c r="B227">
+        <v>36631</v>
+      </c>
+      <c r="C227">
         <v>2.4129999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>76829</v>
       </c>
       <c r="B228">
+        <v>41612</v>
+      </c>
+      <c r="C228">
         <v>2.411</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>71336</v>
       </c>
       <c r="B229">
+        <v>52945</v>
+      </c>
+      <c r="C229">
         <v>2.4079999999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>41812</v>
       </c>
       <c r="B230">
+        <v>44650</v>
+      </c>
+      <c r="C230">
         <v>2.407</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>69469</v>
       </c>
       <c r="B231">
+        <v>43325</v>
+      </c>
+      <c r="C231">
         <v>2.3860000000000001</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>86655</v>
       </c>
       <c r="B232">
+        <v>202571</v>
+      </c>
+      <c r="C232">
         <v>2.383</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>59174</v>
       </c>
       <c r="B233">
+        <v>45927</v>
+      </c>
+      <c r="C233">
         <v>2.3730000000000002</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>75181</v>
       </c>
       <c r="B234">
+        <v>119313</v>
+      </c>
+      <c r="C234">
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>44894</v>
       </c>
       <c r="B235">
+        <v>385729</v>
+      </c>
+      <c r="C235">
         <v>2.3239999999999998</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>32108</v>
       </c>
       <c r="B236">
+        <v>54899</v>
+      </c>
+      <c r="C236">
         <v>2.3039999999999998</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>66424</v>
       </c>
       <c r="B237">
+        <v>44607</v>
+      </c>
+      <c r="C237">
         <v>2.2989999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>64625</v>
       </c>
       <c r="B238">
+        <v>39439</v>
+      </c>
+      <c r="C238">
         <v>2.2930000000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>42399</v>
       </c>
       <c r="B239">
+        <v>360797</v>
+      </c>
+      <c r="C239">
         <v>2.2719999999999998</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>64297</v>
       </c>
       <c r="B240">
+        <v>140385</v>
+      </c>
+      <c r="C240">
         <v>2.2709999999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>99867</v>
       </c>
       <c r="B241">
+        <v>46615</v>
+      </c>
+      <c r="C241">
         <v>2.2639999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>24944</v>
       </c>
       <c r="B242">
+        <v>85838</v>
+      </c>
+      <c r="C242">
         <v>2.262</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>66740</v>
       </c>
       <c r="B243">
+        <v>38333</v>
+      </c>
+      <c r="C243">
         <v>2.2589999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>31275</v>
       </c>
       <c r="B244">
+        <v>43920</v>
+      </c>
+      <c r="C244">
         <v>2.254</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>59229</v>
       </c>
       <c r="B245">
+        <v>55280</v>
+      </c>
+      <c r="C245">
         <v>2.2530000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>74081</v>
       </c>
       <c r="B246">
+        <v>120733</v>
+      </c>
+      <c r="C246">
         <v>2.2519999999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>32760</v>
       </c>
       <c r="B247">
+        <v>73680</v>
+      </c>
+      <c r="C247">
         <v>2.218</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>42555</v>
       </c>
       <c r="B248">
+        <v>87669</v>
+      </c>
+      <c r="C248">
         <v>2.1880000000000002</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>66955</v>
       </c>
       <c r="B249">
+        <v>43582</v>
+      </c>
+      <c r="C249">
         <v>2.173</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>27580</v>
       </c>
       <c r="B250">
+        <v>117446</v>
+      </c>
+      <c r="C250">
         <v>2.161</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>67551</v>
       </c>
       <c r="B251">
+        <v>81099</v>
+      </c>
+      <c r="C251">
         <v>2.149</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>46242</v>
       </c>
       <c r="B252">
+        <v>119909</v>
+      </c>
+      <c r="C252">
         <v>2.0790000000000002</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>47475</v>
       </c>
       <c r="B253">
+        <v>39490</v>
+      </c>
+      <c r="C253">
         <v>2.028</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>18439</v>
       </c>
       <c r="B254">
+        <v>58976</v>
+      </c>
+      <c r="C254">
         <v>2.02</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>22851</v>
       </c>
       <c r="B255">
+        <v>71439</v>
+      </c>
+      <c r="C255">
         <v>2.0059999999999998</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>19063</v>
       </c>
       <c r="B256">
+        <v>96641</v>
+      </c>
+      <c r="C256">
         <v>2.0059999999999998</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>58710</v>
       </c>
       <c r="B257">
+        <v>58451</v>
+      </c>
+      <c r="C257">
         <v>1.99</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>63110</v>
       </c>
       <c r="B258">
+        <v>43315</v>
+      </c>
+      <c r="C258">
         <v>1.984</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>45529</v>
       </c>
       <c r="B259">
+        <v>56866</v>
+      </c>
+      <c r="C259">
         <v>1.984</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>29227</v>
       </c>
       <c r="B260">
+        <v>71010</v>
+      </c>
+      <c r="C260">
         <v>1.8140000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>63303</v>
       </c>
       <c r="B261">
+        <v>40367</v>
+      </c>
+      <c r="C261">
         <v>1.6539999999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B262">
-    <sortCondition descending="1" ref="B1:B262"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C262">
+    <sortCondition descending="1" ref="C1:C262"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
